--- a/Kv11.1_HEK293t_Equine_Human_Peak tail current_long format.xlsx
+++ b/Kv11.1_HEK293t_Equine_Human_Peak tail current_long format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Projects\Kv11.1 analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9570E8-55C5-4428-80A7-D22901EE8FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783D560F-58F1-4008-A520-2C2FC0434BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E88E6B7D-F003-467B-AEF9-DC29AC61DE94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E88E6B7D-F003-467B-AEF9-DC29AC61DE94}"/>
   </bookViews>
   <sheets>
     <sheet name="HEK293t - Kv11.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="19">
   <si>
     <t>Species</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Baseline_substracted_peak_tail_current</t>
+  </si>
+  <si>
+    <t>Membrane_capacitance</t>
+  </si>
+  <si>
+    <t>Access_resistance</t>
   </si>
 </sst>
 </file>
@@ -481,21 +487,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF40FDA-DBF9-4F7D-99DD-16809E49ED8F}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,1287 +511,1743 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>4.54</v>
+      </c>
+      <c r="D2">
+        <v>7.6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>498.50677490234301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>4.54</v>
+      </c>
+      <c r="D3">
+        <v>7.6</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>524.91497802734295</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>4.54</v>
+      </c>
+      <c r="D4">
+        <v>7.6</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>398.46780395507801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4.54</v>
+      </c>
+      <c r="D5">
+        <v>7.6</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>326.381103515625</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>4.54</v>
+      </c>
+      <c r="D6">
+        <v>7.6</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>225.85334777832</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>4.54</v>
+      </c>
+      <c r="D7">
+        <v>7.6</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>177.02970886230401</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>4.54</v>
+      </c>
+      <c r="D8">
+        <v>7.6</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>103.38840484619099</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>4.54</v>
+      </c>
+      <c r="D9">
+        <v>7.6</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>-10</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>86.236015319824205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>4.54</v>
+      </c>
+      <c r="D10">
+        <v>7.6</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>-20</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>95.0076904296875</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>4.54</v>
+      </c>
+      <c r="D11">
+        <v>7.6</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>-30</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>99.621246337890597</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>4.54</v>
+      </c>
+      <c r="D12">
+        <v>7.6</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>-40</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>99.998558044433494</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>4.54</v>
+      </c>
+      <c r="D13">
+        <v>7.6</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>-50</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>111.49663543701099</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>4.54</v>
+      </c>
+      <c r="D14">
+        <v>7.6</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>-60</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>88.436248779296804</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>4.54</v>
+      </c>
+      <c r="D15">
+        <v>7.6</v>
+      </c>
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>-70</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>81.19921875</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>4.54</v>
+      </c>
+      <c r="D16">
+        <v>7.6</v>
+      </c>
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>-80</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>85.348373413085895</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>12.21</v>
+      </c>
+      <c r="D17">
+        <v>3.5</v>
+      </c>
+      <c r="E17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>60</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>2122.96264648437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>12.21</v>
+      </c>
+      <c r="D18">
+        <v>3.5</v>
+      </c>
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>2055.14868164062</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>12.21</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="F19" s="2">
         <v>40</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>2061.27099609375</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>12.21</v>
+      </c>
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2">
+      <c r="F20" s="2">
         <v>30</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1890.48876953125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>12.21</v>
+      </c>
+      <c r="D21">
+        <v>3.5</v>
+      </c>
+      <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1475.23901367187</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>12.21</v>
+      </c>
+      <c r="D22">
+        <v>3.5</v>
+      </c>
+      <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>1019.71862792968</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>12.21</v>
+      </c>
+      <c r="D23">
+        <v>3.5</v>
+      </c>
+      <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1242.82275390625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>12.21</v>
+      </c>
+      <c r="D24">
+        <v>3.5</v>
+      </c>
+      <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>-10</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>635.14025878906205</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>12.21</v>
+      </c>
+      <c r="D25">
+        <v>3.5</v>
+      </c>
+      <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>-20</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>455.72329711914</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>12.21</v>
+      </c>
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+      <c r="E26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>-30</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>682.34338378906205</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>12.21</v>
+      </c>
+      <c r="D27">
+        <v>3.5</v>
+      </c>
+      <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
+      <c r="F27" s="2">
         <v>-40</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1307.84826660156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>12.21</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2">
+      <c r="F28" s="2">
         <v>-50</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>866.50933837890602</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>12.21</v>
+      </c>
+      <c r="D29">
+        <v>3.5</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>-60</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>387.86679077148398</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>12.21</v>
+      </c>
+      <c r="D30">
+        <v>3.5</v>
+      </c>
+      <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2">
+      <c r="F30" s="2">
         <v>-70</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>210.12660217285099</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>12.21</v>
+      </c>
+      <c r="D31">
+        <v>3.5</v>
+      </c>
+      <c r="E31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F31" s="2">
         <v>-80</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>6.86</v>
+      </c>
+      <c r="D32">
+        <v>7.1</v>
+      </c>
+      <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="2">
+      <c r="F32" s="2">
         <v>60</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>485.53152465820301</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>6.86</v>
+      </c>
+      <c r="D33">
+        <v>7.1</v>
+      </c>
+      <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2">
+      <c r="F33" s="2">
         <v>50</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>396.63088989257801</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>6.86</v>
+      </c>
+      <c r="D34">
+        <v>7.1</v>
+      </c>
+      <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="F34" s="2">
         <v>40</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>281.28985595703102</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>6.86</v>
+      </c>
+      <c r="D35">
+        <v>7.1</v>
+      </c>
+      <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="2">
+      <c r="F35" s="2">
         <v>30</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>180.277420043945</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>6.86</v>
+      </c>
+      <c r="D36">
+        <v>7.1</v>
+      </c>
+      <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2">
+      <c r="F36" s="2">
         <v>20</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>106.13571166992099</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>6.86</v>
+      </c>
+      <c r="D37">
+        <v>7.1</v>
+      </c>
+      <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2">
+      <c r="F37" s="2">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>60.961502075195298</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>6.86</v>
+      </c>
+      <c r="D38">
+        <v>7.1</v>
+      </c>
+      <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
+      <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>40.6343994140625</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>6.86</v>
+      </c>
+      <c r="D39">
+        <v>7.1</v>
+      </c>
+      <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="2">
+      <c r="F39" s="2">
         <v>-10</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>32.344768524169901</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>6.86</v>
+      </c>
+      <c r="D40">
+        <v>7.1</v>
+      </c>
+      <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="2">
+      <c r="F40" s="2">
         <v>-20</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>29.0306682586669</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>6.86</v>
+      </c>
+      <c r="D41">
+        <v>7.1</v>
+      </c>
+      <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2">
+      <c r="F41" s="2">
         <v>-30</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>28.072587966918899</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>6.86</v>
+      </c>
+      <c r="D42">
+        <v>7.1</v>
+      </c>
+      <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="2">
+      <c r="F42" s="2">
         <v>-40</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>28.359968185424801</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>6.86</v>
+      </c>
+      <c r="D43">
+        <v>7.1</v>
+      </c>
+      <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2">
+      <c r="F43" s="2">
         <v>-50</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>27.5424785614013</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>6.86</v>
+      </c>
+      <c r="D44">
+        <v>7.1</v>
+      </c>
+      <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="2">
+      <c r="F44" s="2">
         <v>-60</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>26.209823608398398</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>6.86</v>
+      </c>
+      <c r="D45">
+        <v>7.1</v>
+      </c>
+      <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="2">
+      <c r="F45" s="2">
         <v>-70</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>28.949607849121001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>6.86</v>
+      </c>
+      <c r="D46">
+        <v>7.1</v>
+      </c>
+      <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2">
+      <c r="F46" s="2">
         <v>-80</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>30.901887893676701</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>15.23</v>
+      </c>
+      <c r="D47">
+        <v>43.8</v>
+      </c>
+      <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="2">
+      <c r="F47" s="2">
         <v>60</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>346.86578369140602</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>15.23</v>
+      </c>
+      <c r="D48">
+        <v>43.8</v>
+      </c>
+      <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="2">
+      <c r="F48" s="2">
         <v>50</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>335.02371215820301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>15.23</v>
+      </c>
+      <c r="D49">
+        <v>43.8</v>
+      </c>
+      <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="2">
+      <c r="F49" s="2">
         <v>40</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>320.98538208007801</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>15.23</v>
+      </c>
+      <c r="D50">
+        <v>43.8</v>
+      </c>
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2">
+      <c r="F50" s="2">
         <v>30</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>281.40896606445301</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>15.23</v>
+      </c>
+      <c r="D51">
+        <v>43.8</v>
+      </c>
+      <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="2">
+      <c r="F51" s="2">
         <v>20</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>219.69667053222599</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>15.23</v>
+      </c>
+      <c r="D52">
+        <v>43.8</v>
+      </c>
+      <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2">
+      <c r="F52" s="2">
         <v>10</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>139.65191650390599</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>15.23</v>
+      </c>
+      <c r="D53">
+        <v>43.8</v>
+      </c>
+      <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>72.174133300781193</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>15.23</v>
+      </c>
+      <c r="D54">
+        <v>43.8</v>
+      </c>
+      <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="2">
+      <c r="F54" s="2">
         <v>-10</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>34.179447174072202</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>15.23</v>
+      </c>
+      <c r="D55">
+        <v>43.8</v>
+      </c>
+      <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2">
+      <c r="F55" s="2">
         <v>-20</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>19.2661933898925</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>15.23</v>
+      </c>
+      <c r="D56">
+        <v>43.8</v>
+      </c>
+      <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="2">
+      <c r="F56" s="2">
         <v>-30</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>14.8068590164184</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <v>15.23</v>
+      </c>
+      <c r="D57">
+        <v>43.8</v>
+      </c>
+      <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="2">
+      <c r="F57" s="2">
         <v>-40</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>16.127872467041001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>15.23</v>
+      </c>
+      <c r="D58">
+        <v>43.8</v>
+      </c>
+      <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="2">
+      <c r="F58" s="2">
         <v>-50</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>14.1406745910644</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <v>15.23</v>
+      </c>
+      <c r="D59">
+        <v>43.8</v>
+      </c>
+      <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="2">
+      <c r="F59" s="2">
         <v>-60</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>15.828623771667401</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60">
+        <v>15.23</v>
+      </c>
+      <c r="D60">
+        <v>43.8</v>
+      </c>
+      <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="2">
+      <c r="F60" s="2">
         <v>-70</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>15.060320854186999</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61">
+        <v>15.23</v>
+      </c>
+      <c r="D61">
+        <v>43.8</v>
+      </c>
+      <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="2">
+      <c r="F61" s="2">
         <v>-80</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>14.888804435729901</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62">
+        <v>6.58</v>
+      </c>
+      <c r="D62">
+        <v>6.9</v>
+      </c>
+      <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="2">
+      <c r="F62" s="2">
         <v>60</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>602.58465576171795</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63">
+        <v>6.58</v>
+      </c>
+      <c r="D63">
+        <v>6.9</v>
+      </c>
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="2">
+      <c r="F63" s="2">
         <v>50</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>521.914794921875</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64">
+        <v>6.58</v>
+      </c>
+      <c r="D64">
+        <v>6.9</v>
+      </c>
+      <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="2">
+      <c r="F64" s="2">
         <v>40</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>399.01193237304602</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <v>6.58</v>
+      </c>
+      <c r="D65">
+        <v>6.9</v>
+      </c>
+      <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="2">
+      <c r="F65" s="2">
         <v>30</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>281.889892578125</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66">
+        <v>6.58</v>
+      </c>
+      <c r="D66">
+        <v>6.9</v>
+      </c>
+      <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="2">
+      <c r="F66" s="2">
         <v>20</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>172.90985107421801</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>6.58</v>
+      </c>
+      <c r="D67">
+        <v>6.9</v>
+      </c>
+      <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="2">
+      <c r="F67" s="2">
         <v>10</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>103.155876159667</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68">
+        <v>6.58</v>
+      </c>
+      <c r="D68">
+        <v>6.9</v>
+      </c>
+      <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="2">
+      <c r="F68" s="2">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>61.934921264648402</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69">
+        <v>6.58</v>
+      </c>
+      <c r="D69">
+        <v>6.9</v>
+      </c>
+      <c r="E69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="2">
+      <c r="F69" s="2">
         <v>-10</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>54.655925750732401</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70">
+        <v>6.58</v>
+      </c>
+      <c r="D70">
+        <v>6.9</v>
+      </c>
+      <c r="E70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="2">
+      <c r="F70" s="2">
         <v>-20</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>49.119731903076101</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71">
+        <v>6.58</v>
+      </c>
+      <c r="D71">
+        <v>6.9</v>
+      </c>
+      <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="2">
+      <c r="F71" s="2">
         <v>-30</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>43.193531036376903</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <v>6.58</v>
+      </c>
+      <c r="D72">
+        <v>6.9</v>
+      </c>
+      <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="2">
+      <c r="F72" s="2">
         <v>-40</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>65.187316894531193</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73">
+        <v>6.58</v>
+      </c>
+      <c r="D73">
+        <v>6.9</v>
+      </c>
+      <c r="E73" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="2">
+      <c r="F73" s="2">
         <v>-50</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>46.242343902587798</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74">
+        <v>6.58</v>
+      </c>
+      <c r="D74">
+        <v>6.9</v>
+      </c>
+      <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="2">
+      <c r="F74" s="2">
         <v>-60</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>49.256229400634702</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75">
+        <v>6.58</v>
+      </c>
+      <c r="D75">
+        <v>6.9</v>
+      </c>
+      <c r="E75" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="2">
+      <c r="F75" s="2">
         <v>-70</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>45.792881011962798</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <v>6.58</v>
+      </c>
+      <c r="D76">
+        <v>6.9</v>
+      </c>
+      <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="2">
+      <c r="F76" s="2">
         <v>-80</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>55.607662200927699</v>
       </c>
     </row>
